--- a/Projecto 3/Planeacion.xlsx
+++ b/Projecto 3/Planeacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
   <si>
     <t>Orden de compra</t>
   </si>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Ciclo 1</t>
+  </si>
+  <si>
+    <t>Ciclo 2</t>
+  </si>
+  <si>
+    <t>Ciclo 3</t>
+  </si>
+  <si>
+    <t>ciclo 2</t>
   </si>
 </sst>
 </file>
@@ -387,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -515,6 +533,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,12 +850,12 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -860,7 +881,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
@@ -900,8 +921,14 @@
         <f>SUM(H3:I3)</f>
         <v>33.127499999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,7 +952,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,7 +975,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -972,7 +999,7 @@
         <v>11.200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1027,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>1</v>
       </c>
@@ -1040,8 +1067,14 @@
         <f>SUM(H8:I8)</f>
         <v>57.203999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1065,7 +1098,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1089,7 +1122,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1112,7 +1145,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -1136,7 +1169,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -1160,7 +1193,7 @@
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1184,7 +1217,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>2</v>
       </c>
@@ -1224,8 +1257,14 @@
         <f>SUM(H15:I15)</f>
         <v>102.24900000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="27">
+        <v>0.34310000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1248,8 +1287,14 @@
         <f>SUM(B16:E16)</f>
         <v>6.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="27">
+        <v>0.65690000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1273,7 +1318,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1297,7 +1342,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1321,7 +1366,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1345,7 +1390,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1369,7 +1414,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1392,7 +1437,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1416,7 +1461,7 @@
         <v>12.600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1440,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -1464,7 +1509,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1488,7 +1533,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1512,7 +1557,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>3</v>
       </c>
@@ -1552,8 +1597,14 @@
         <f>SUM(H28:I28)</f>
         <v>132.67800000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="27">
+        <v>0.62560000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>68</v>
       </c>
@@ -1576,8 +1627,14 @@
         <f>SUM(B29:E29)</f>
         <v>6.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="27">
+        <v>0.34439999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>69</v>
       </c>
@@ -1601,7 +1658,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>70</v>
       </c>
@@ -1625,7 +1682,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>71</v>
       </c>
@@ -1649,7 +1706,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>72</v>
       </c>
@@ -1673,7 +1730,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>73</v>
       </c>
@@ -1697,7 +1754,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>74</v>
       </c>
@@ -1721,7 +1778,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>75</v>
       </c>
@@ -1745,7 +1802,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>76</v>
       </c>
@@ -1768,7 +1825,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>77</v>
       </c>
@@ -1791,7 +1848,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>78</v>
       </c>
@@ -1815,7 +1872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>79</v>
       </c>
@@ -1839,7 +1896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>80</v>
       </c>
@@ -1863,7 +1920,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>81</v>
       </c>
@@ -1887,7 +1944,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>82</v>
       </c>
@@ -1911,7 +1968,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>83</v>
       </c>
@@ -1935,7 +1992,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>4</v>
       </c>
@@ -1975,8 +2032,14 @@
         <f>SUM(H45:I45)</f>
         <v>81.522000000000006</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L45" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>84</v>
       </c>
@@ -2000,7 +2063,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>85</v>
       </c>
@@ -2024,7 +2087,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>86</v>
       </c>
@@ -2570,12 +2633,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1">
+        <v>125</v>
+      </c>
+      <c r="E1">
+        <f>SUM(B2:B3)</f>
+        <v>90.331500000000005</v>
+      </c>
+      <c r="G1">
+        <v>35</v>
+      </c>
+      <c r="H1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22">
+        <v>33.127499999999998</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>57.204000000000001</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="G3">
+        <f>(G1*H2)/H1</f>
+        <v>34.313725490196077</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <f>H3-G3</f>
+        <v>65.686274509803923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>SUM(B1:B5)</f>
+        <v>490.33150000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>F7-F8</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>B4-F9</f>
+        <v>83</v>
+      </c>
+      <c r="H10">
+        <v>132.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>(F10*H11)/H10</f>
+        <v>62.556526982212837</v>
+      </c>
+      <c r="H12">
+        <f>H11-F12</f>
+        <v>37.443473017787163</v>
+      </c>
+      <c r="I12">
+        <v>81.52</v>
+      </c>
+      <c r="J12">
+        <f>I12+H12</f>
+        <v>118.96347301778715</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Projecto 3/Planeacion.xlsx
+++ b/Projecto 3/Planeacion.xlsx
@@ -33,9 +33,6 @@
     <t>Retroalimentacion</t>
   </si>
   <si>
-    <t>Registrar PO (Servicio PO Manager)</t>
-  </si>
-  <si>
     <t>Registrar PO (Bus)</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>ciclo 2</t>
+  </si>
+  <si>
+    <t>Registrar PO (Servicio PO Manager app)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +433,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -503,9 +527,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,12 +539,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -536,6 +551,45 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,80 +911,80 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="E2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>99</v>
+      <c r="J2" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <f>C3*B$1</f>
         <v>1.9000000000000001</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <f>SUM(C4:C7)</f>
         <v>19</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <f>SUM(D4:D7)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <f>SUM(E4:E7)</f>
         <v>4.3</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <f>SUM(B3:E3)</f>
         <v>27.75</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <f>C3*0.2</f>
         <v>3.8000000000000003</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <f>SUM(F3:G3)</f>
         <v>31.55</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <f>H3*0.05</f>
         <v>1.5775000000000001</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <f>SUM(H3:I3)</f>
         <v>33.127499999999998</v>
       </c>
-      <c r="L3" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="26">
+      <c r="L3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B60" si="0">C4*B$1</f>
@@ -953,8 +1007,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -976,8 +1030,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
+      <c r="A6" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1000,83 +1054,83 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="22">
+      <c r="A7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>5</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <f>C7*Sheet2!J6</f>
         <v>0.75</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <f>C7*Sheet2!K6</f>
         <v>1.5</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>7.75</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="18">
         <f>SUM(B9:B14)</f>
         <v>3.1000000000000005</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <f>SUM(C9:C14)</f>
         <v>31</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <f>SUM(D9:D14)</f>
         <v>4.3</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <f>SUM(E9:E14)</f>
         <v>7</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <f>SUM(F9:F14)</f>
         <v>45.4</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <f>F8*0.2</f>
         <v>9.08</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <f>SUM(F8:G8)</f>
         <v>54.48</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <f>H8*0.05</f>
         <v>2.7240000000000002</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <f>SUM(H8:I8)</f>
         <v>57.203999999999994</v>
       </c>
-      <c r="L8" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="26">
+      <c r="L8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
+      <c r="A9" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -1099,8 +1153,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
+      <c r="A10" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -1123,8 +1177,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
+      <c r="A11" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -1146,8 +1200,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
+      <c r="A12" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -1170,8 +1224,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
+      <c r="A13" s="32" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -1194,8 +1248,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
+      <c r="A14" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -1218,55 +1272,55 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <f>SUM(B16:B27)</f>
         <v>5.5</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <f t="shared" ref="C15:F15" si="3">SUM(C16:C27)</f>
         <v>55</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <f t="shared" si="3"/>
         <v>7.95</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <f t="shared" si="3"/>
         <v>12.7</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <f t="shared" si="3"/>
         <v>81.150000000000006</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <f>F15*0.2</f>
         <v>16.23</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="18">
         <f>SUM(F15:G15)</f>
         <v>97.38000000000001</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="18">
         <f>H15*0.05</f>
         <v>4.8690000000000007</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="18">
         <f>SUM(H15:I15)</f>
         <v>102.24900000000001</v>
       </c>
-      <c r="L15" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="27">
+      <c r="L15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="24">
         <v>0.34310000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>55</v>
+      <c r="A16" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -1287,16 +1341,16 @@
         <f>SUM(B16:E16)</f>
         <v>6.2</v>
       </c>
-      <c r="L16" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="27">
+      <c r="L16" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="24">
         <v>0.65690000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>56</v>
+      <c r="A17" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -1319,8 +1373,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>57</v>
+      <c r="A18" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -1343,8 +1397,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
+      <c r="A19" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -1367,8 +1421,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
+      <c r="A20" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -1391,8 +1445,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
+      <c r="A21" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -1415,8 +1469,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
+      <c r="A22" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -1438,8 +1492,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
+      <c r="A23" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -1462,8 +1516,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>63</v>
+      <c r="A24" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -1486,8 +1540,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
+      <c r="A25" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -1510,8 +1564,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>65</v>
+      <c r="A26" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -1534,8 +1588,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>66</v>
+      <c r="A27" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -1558,55 +1612,55 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="18">
         <f>SUM(B29:B44)</f>
         <v>7.1000000000000005</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="18">
         <f t="shared" ref="C28:F28" si="5">SUM(C29:C44)</f>
         <v>71</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="18">
         <f t="shared" si="5"/>
         <v>10.4</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="18">
         <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="18">
         <f t="shared" si="5"/>
         <v>105.30000000000001</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="18">
         <f>F28*0.2</f>
         <v>21.060000000000002</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="18">
         <f>SUM(F28:G28)</f>
         <v>126.36000000000001</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="18">
         <f>H28*0.05</f>
         <v>6.3180000000000014</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="18">
         <f>SUM(H28:I28)</f>
         <v>132.67800000000003</v>
       </c>
-      <c r="L28" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="M28" s="27">
+      <c r="L28" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="24">
         <v>0.62560000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>68</v>
+      <c r="A29" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1627,16 +1681,16 @@
         <f>SUM(B29:E29)</f>
         <v>6.2</v>
       </c>
-      <c r="L29" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="M29" s="27">
+      <c r="L29" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="24">
         <v>0.34439999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>69</v>
+      <c r="A30" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -1659,8 +1713,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>70</v>
+      <c r="A31" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -1683,8 +1737,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>71</v>
+      <c r="A32" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -1707,8 +1761,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>72</v>
+      <c r="A33" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -1731,8 +1785,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>73</v>
+      <c r="A34" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -1755,8 +1809,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>74</v>
+      <c r="A35" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -1779,8 +1833,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>75</v>
+      <c r="A36" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -1803,8 +1857,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>76</v>
+      <c r="A37" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -1826,8 +1880,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>77</v>
+      <c r="A38" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -1849,8 +1903,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>78</v>
+      <c r="A39" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -1873,8 +1927,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>79</v>
+      <c r="A40" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -1897,8 +1951,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>80</v>
+      <c r="A41" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -1921,8 +1975,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>81</v>
+      <c r="A42" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -1945,8 +1999,8 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>82</v>
+      <c r="A43" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -1969,8 +2023,8 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>83</v>
+      <c r="A44" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -1993,61 +2047,61 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="18">
         <f>SUM(B46:B60)</f>
         <v>4.5</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="18">
         <f t="shared" ref="C45:F45" si="7">SUM(C46:C60)</f>
         <v>45</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="18">
         <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="18">
         <f t="shared" si="7"/>
         <v>8.7999999999999989</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="18">
         <f t="shared" si="7"/>
         <v>64.7</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="18">
         <f>F45*0.2</f>
         <v>12.940000000000001</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="18">
         <f>SUM(F45:G45)</f>
         <v>77.64</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="18">
         <f>H45*0.05</f>
         <v>3.8820000000000001</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="18">
         <f>SUM(H45:I45)</f>
         <v>81.522000000000006</v>
       </c>
-      <c r="L45" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="M45" s="26">
+      <c r="L45" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="M45" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>84</v>
+      <c r="A46" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="17">
         <v>1</v>
       </c>
       <c r="D46">
@@ -2064,14 +2118,14 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>85</v>
+      <c r="A47" s="28" t="s">
+        <v>84</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47">
@@ -2088,14 +2142,14 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>86</v>
+      <c r="A48" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="17">
         <v>1</v>
       </c>
       <c r="D48">
@@ -2112,14 +2166,14 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>87</v>
+      <c r="A49" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="17">
         <v>1</v>
       </c>
       <c r="D49">
@@ -2136,14 +2190,14 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>88</v>
+      <c r="A50" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="17">
         <v>1</v>
       </c>
       <c r="D50">
@@ -2160,14 +2214,14 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>89</v>
+      <c r="A51" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="17">
         <v>4</v>
       </c>
       <c r="D51">
@@ -2184,14 +2238,14 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>90</v>
+      <c r="A52" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="17">
         <v>4</v>
       </c>
       <c r="D52">
@@ -2208,14 +2262,14 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>91</v>
+      <c r="A53" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="17">
         <v>6</v>
       </c>
       <c r="D53">
@@ -2231,14 +2285,14 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>92</v>
+      <c r="A54" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="17">
         <v>4</v>
       </c>
       <c r="D54">
@@ -2254,14 +2308,14 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>93</v>
+      <c r="A55" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="17">
         <v>3</v>
       </c>
       <c r="D55">
@@ -2278,14 +2332,14 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>94</v>
+      <c r="A56" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="17">
         <v>4</v>
       </c>
       <c r="D56">
@@ -2302,14 +2356,14 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>95</v>
+      <c r="A57" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="17">
         <v>4</v>
       </c>
       <c r="D57">
@@ -2326,14 +2380,14 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>96</v>
+      <c r="A58" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="17">
         <v>3</v>
       </c>
       <c r="D58">
@@ -2350,14 +2404,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>97</v>
+      <c r="A59" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="17">
         <v>3</v>
       </c>
       <c r="D59">
@@ -2374,14 +2428,14 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>98</v>
+      <c r="A60" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="17">
         <v>5</v>
       </c>
       <c r="D60">
@@ -2398,25 +2452,25 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23">
+      <c r="A61" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20">
         <f>SUM(J3:J60)</f>
         <v>406.78050000000002</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>67</v>
+      <c r="A64" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2440,76 +2494,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="J3">
         <v>0.15</v>
@@ -2520,28 +2574,28 @@
     </row>
     <row r="4" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -2555,31 +2609,31 @@
     </row>
     <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="C5" s="8">
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8">
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -2590,31 +2644,31 @@
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="C6" s="8">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="8">
         <v>5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="J6">
         <v>0.15</v>
@@ -2646,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1">
         <v>125</v>
@@ -2666,10 +2720,10 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="19">
         <v>33.127499999999998</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="19"/>
       <c r="H2">
         <v>100</v>
       </c>
@@ -2679,7 +2733,7 @@
       <c r="B3">
         <v>57.204000000000001</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="19"/>
       <c r="G3">
         <f>(G1*H2)/H1</f>
         <v>34.313725490196077</v>
@@ -2694,7 +2748,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>150</v>
@@ -2702,7 +2756,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>125</v>
